--- a/TEST4XMI_20210304.xlsx
+++ b/TEST4XMI_20210304.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\CONVERTER\XMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA3A236-3E09-4E00-907E-C6A03FA127CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65501071-C32A-4DA4-B6DD-80CE2F236011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1125,9 +1116,6 @@
     <t>Specifies the country where a person was born or is legally accepted as belonging to the country. (ISO20022)</t>
   </si>
   <si>
-    <t>The religion that a party believes in</t>
-  </si>
-  <si>
     <t xml:space="preserve">An agreement between bank and customer/client which regulates arrangements, terms and conditions for daily banking transactions as offered as services in the current account product. 
 </t>
   </si>
@@ -1332,6 +1320,9 @@
   </si>
   <si>
     <t>BIAN Service Landscape v9.0 -- Service Domain BOM Relations</t>
+  </si>
+  <si>
+    <t>The religion that a party believes in.</t>
   </si>
 </sst>
 </file>
@@ -6583,7 +6574,7 @@
   <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7438,7 +7429,7 @@
         <v>190</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>244</v>
@@ -7690,7 +7681,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="28"/>
       <c r="F21" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -7742,7 +7733,7 @@
         <v>145</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>247</v>
@@ -7806,7 +7797,7 @@
         <v>147</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>257</v>
@@ -7870,7 +7861,7 @@
         <v>143</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>298</v>
@@ -7930,7 +7921,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="28"/>
       <c r="F25" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -7982,7 +7973,7 @@
         <v>161</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>312</v>
@@ -8108,7 +8099,7 @@
         <v>159</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>244</v>
@@ -8172,7 +8163,7 @@
         <v>163</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>315</v>
@@ -8232,7 +8223,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="28"/>
       <c r="F30" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -8328,7 +8319,7 @@
         <v>279</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -8364,7 +8355,7 @@
         <v>281</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -8400,7 +8391,7 @@
         <v>283</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -8436,7 +8427,7 @@
         <v>285</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -8472,7 +8463,7 @@
         <v>287</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -8552,7 +8543,7 @@
         <v>291</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -8588,7 +8579,7 @@
         <v>293</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -8624,7 +8615,7 @@
         <v>295</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -8690,7 +8681,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="28"/>
       <c r="F42" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -8838,7 +8829,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="28"/>
       <c r="F46" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -8888,7 +8879,7 @@
         <v>153</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -8924,7 +8915,7 @@
         <v>155</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -8956,7 +8947,7 @@
       <c r="D49" s="15"/>
       <c r="E49" s="28"/>
       <c r="F49" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -9186,7 +9177,7 @@
         <v>322</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -9222,7 +9213,7 @@
         <v>324</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -9999,10 +9990,10 @@
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>386</v>
       </c>
       <c r="I73" s="15" t="s">
         <v>271</v>
@@ -10136,7 +10127,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="28"/>
       <c r="F76" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -10383,10 +10374,10 @@
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="H81" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>386</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>309</v>
@@ -10440,7 +10431,7 @@
       <c r="D82" s="15"/>
       <c r="E82" s="28"/>
       <c r="F82" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -10482,7 +10473,7 @@
       <c r="D83" s="15"/>
       <c r="E83" s="28"/>
       <c r="F83" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -10734,7 +10725,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -10865,7 +10856,7 @@
         <v>237</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>212</v>
@@ -10874,31 +10865,31 @@
         <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>209</v>
@@ -10907,31 +10898,31 @@
         <v>133</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>342</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="U4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="W4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
@@ -10939,7 +10930,7 @@
         <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>212</v>
@@ -10948,31 +10939,31 @@
         <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>230</v>
@@ -10981,31 +10972,31 @@
         <v>157</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>342</v>
       </c>
       <c r="R5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="U5" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="X5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
@@ -11013,7 +11004,7 @@
         <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>226</v>
@@ -11022,31 +11013,31 @@
         <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>230</v>
@@ -11055,31 +11046,31 @@
         <v>157</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>342</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="U6" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="W6" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -11126,7 +11117,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11181,13 +11172,13 @@
         <v>121</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>409</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>410</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -11205,13 +11196,13 @@
         <v>133</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>412</v>
-      </c>
       <c r="G5" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11228,13 +11219,13 @@
         <v>141</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>414</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11251,13 +11242,13 @@
         <v>150</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="G7" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11274,13 +11265,13 @@
         <v>157</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>418</v>
-      </c>
       <c r="G8" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11297,13 +11288,13 @@
         <v>165</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>420</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11320,13 +11311,13 @@
         <v>179</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>422</v>
-      </c>
       <c r="G10" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11343,13 +11334,13 @@
         <v>121</v>
       </c>
       <c r="E11" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>424</v>
-      </c>
       <c r="G11" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11366,13 +11357,13 @@
         <v>200</v>
       </c>
       <c r="E12" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>426</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -11412,7 +11403,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>

--- a/TEST4XMI_20210304.xlsx
+++ b/TEST4XMI_20210304.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\CONVERTER\XMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Dropbox\IAB\Envizion\bian\BIAN_Model\BIAN_ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65501071-C32A-4DA4-B6DD-80CE2F236011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0261FF91-3D86-47A4-AD9F-0F3435E477AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35850" yWindow="3195" windowWidth="12675" windowHeight="6420" tabRatio="796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XMI Structure" sheetId="32" r:id="rId1"/>
@@ -23,6 +23,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1116,6 +1125,9 @@
     <t>Specifies the country where a person was born or is legally accepted as belonging to the country. (ISO20022)</t>
   </si>
   <si>
+    <t>The religion that a party believes in</t>
+  </si>
+  <si>
     <t xml:space="preserve">An agreement between bank and customer/client which regulates arrangements, terms and conditions for daily banking transactions as offered as services in the current account product. 
 </t>
   </si>
@@ -1320,9 +1332,6 @@
   </si>
   <si>
     <t>BIAN Service Landscape v9.0 -- Service Domain BOM Relations</t>
-  </si>
-  <si>
-    <t>The religion that a party believes in.</t>
   </si>
 </sst>
 </file>
@@ -2230,12 +2239,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="202" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="202" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="201" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="201" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2244,6 +2247,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="201" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="202" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="201" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="203">
@@ -2802,13 +2811,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{4141C7E0-12B2-4DD5-99DF-F80845E78498}" name="Table21" displayName="Table21" ref="A3:V85" totalsRowShown="0">
-  <autoFilter ref="A3:V85" xr:uid="{31A0EACA-0CD5-401C-9F56-233C5621083E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Person"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:V85" xr:uid="{31A0EACA-0CD5-401C-9F56-233C5621083E}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{3FB53D31-D1A9-4908-88FF-FC1066A97844}" name="UML Type" dataDxfId="74" dataCellStyle="Normal 2"/>
     <tableColumn id="5" xr3:uid="{48C2046F-C16F-46FC-BFB6-F9E42925EBD3}" name="UID Business Object" dataDxfId="73" dataCellStyle="Normal 2"/>
@@ -3914,14 +3917,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -4145,7 +4148,7 @@
       <c r="D13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F13" s="15" t="s">
@@ -4165,7 +4168,7 @@
       <c r="D14" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F14" s="15" t="s">
@@ -4185,7 +4188,7 @@
       <c r="D15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -4205,7 +4208,7 @@
       <c r="D16" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F16" s="15" t="s">
@@ -4225,7 +4228,7 @@
       <c r="D17" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="15" t="s">
@@ -4245,7 +4248,7 @@
       <c r="D18" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F18" s="15" t="s">
@@ -4265,7 +4268,7 @@
       <c r="D19" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F19" s="15" t="s">
@@ -4285,7 +4288,7 @@
       <c r="D20" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F20" s="15" t="s">
@@ -4305,7 +4308,7 @@
       <c r="D21" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -4325,7 +4328,7 @@
       <c r="D22" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F22" s="15" t="s">
@@ -4345,7 +4348,7 @@
       <c r="D23" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F23" s="15" t="s">
@@ -4365,7 +4368,7 @@
       <c r="D24" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F24" s="15" t="s">
@@ -4385,7 +4388,7 @@
       <c r="D25" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="15" t="s">
@@ -4405,7 +4408,7 @@
       <c r="D26" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F26" s="15" t="s">
@@ -4425,7 +4428,7 @@
       <c r="D27" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F27" s="15" t="s">
@@ -4445,7 +4448,7 @@
       <c r="D28" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F28" s="15" t="s">
@@ -4465,7 +4468,7 @@
       <c r="D29" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F29" s="15" t="s">
@@ -4485,7 +4488,7 @@
       <c r="D30" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F30" s="15" t="s">
@@ -4505,7 +4508,7 @@
       <c r="D31" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F31" s="15" t="s">
@@ -4525,7 +4528,7 @@
       <c r="D32" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F32" s="15" t="s">
@@ -4545,7 +4548,7 @@
       <c r="D33" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F33" s="15" t="s">
@@ -4565,7 +4568,7 @@
       <c r="D34" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F34" s="15" t="s">
@@ -4585,7 +4588,7 @@
       <c r="D35" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F35" s="15" t="s">
@@ -4605,7 +4608,7 @@
       <c r="D36" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="15" t="s">
@@ -4625,7 +4628,7 @@
       <c r="D37" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F37" s="15" t="s">
@@ -4645,7 +4648,7 @@
       <c r="D38" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F38" s="15" t="s">
@@ -4665,7 +4668,7 @@
       <c r="D39" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F39" s="15" t="s">
@@ -4685,7 +4688,7 @@
       <c r="D40" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F40" s="15" t="s">
@@ -4705,7 +4708,7 @@
       <c r="D41" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F41" s="15" t="s">
@@ -4725,7 +4728,7 @@
       <c r="D42" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="15" t="s">
@@ -4745,7 +4748,7 @@
       <c r="D43" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -4765,7 +4768,7 @@
       <c r="D44" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F44" s="15" t="s">
@@ -4785,7 +4788,7 @@
       <c r="D45" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F45" s="15" t="s">
@@ -4805,7 +4808,7 @@
       <c r="D46" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F46" s="15" t="s">
@@ -4825,7 +4828,7 @@
       <c r="D47" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F47" s="15" t="s">
@@ -4845,7 +4848,7 @@
       <c r="D48" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F48" s="15" t="s">
@@ -4865,7 +4868,7 @@
       <c r="D49" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F49" s="15" t="s">
@@ -4885,7 +4888,7 @@
       <c r="D50" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="31" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="15" t="s">
@@ -4905,7 +4908,7 @@
       <c r="D51" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -4925,7 +4928,7 @@
       <c r="D52" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F52" s="15" t="s">
@@ -4945,7 +4948,7 @@
       <c r="D53" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F53" s="15" t="s">
@@ -4965,7 +4968,7 @@
       <c r="D54" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F54" s="15" t="s">
@@ -4985,7 +4988,7 @@
       <c r="D55" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F55" s="15" t="s">
@@ -5005,7 +5008,7 @@
       <c r="D56" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F56" s="15" t="s">
@@ -5025,7 +5028,7 @@
       <c r="D57" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F57" s="15" t="s">
@@ -5045,7 +5048,7 @@
       <c r="D58" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F58" s="15" t="s">
@@ -5065,7 +5068,7 @@
       <c r="D59" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F59" s="15" t="s">
@@ -5085,7 +5088,7 @@
       <c r="D60" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F60" s="15" t="s">
@@ -5105,7 +5108,7 @@
       <c r="D61" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="E61" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F61" s="15" t="s">
@@ -5125,7 +5128,7 @@
       <c r="D62" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E62" s="28" t="s">
+      <c r="E62" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F62" s="15" t="s">
@@ -5145,7 +5148,7 @@
       <c r="D63" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F63" s="15" t="s">
@@ -5165,7 +5168,7 @@
       <c r="D64" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E64" s="28" t="s">
+      <c r="E64" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F64" s="15" t="s">
@@ -5185,7 +5188,7 @@
       <c r="D65" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F65" s="15" t="s">
@@ -5205,7 +5208,7 @@
       <c r="D66" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F66" s="15" t="s">
@@ -5225,7 +5228,7 @@
       <c r="D67" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F67" s="15" t="s">
@@ -5245,7 +5248,7 @@
       <c r="D68" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E68" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F68" s="15" t="s">
@@ -5265,7 +5268,7 @@
       <c r="D69" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F69" s="15" t="s">
@@ -5285,7 +5288,7 @@
       <c r="D70" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F70" s="15" t="s">
@@ -5305,7 +5308,7 @@
       <c r="D71" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F71" s="15" t="s">
@@ -5325,7 +5328,7 @@
       <c r="D72" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F72" s="15" t="s">
@@ -5345,7 +5348,7 @@
       <c r="D73" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F73" s="15" t="s">
@@ -5365,7 +5368,7 @@
       <c r="D74" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F74" s="15" t="s">
@@ -5385,7 +5388,7 @@
       <c r="D75" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E75" s="28" t="s">
+      <c r="E75" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F75" s="15" t="s">
@@ -5405,7 +5408,7 @@
       <c r="D76" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="31" t="s">
         <v>120</v>
       </c>
       <c r="F76" s="15" t="s">
@@ -5425,7 +5428,7 @@
       <c r="D77" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F77" s="15" t="s">
@@ -5445,7 +5448,7 @@
       <c r="D78" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F78" s="15" t="s">
@@ -5465,7 +5468,7 @@
       <c r="D79" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F79" s="15" t="s">
@@ -5485,7 +5488,7 @@
       <c r="D80" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F80" s="15" t="s">
@@ -5505,7 +5508,7 @@
       <c r="D81" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F81" s="15" t="s">
@@ -5525,7 +5528,7 @@
       <c r="D82" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E82" s="28" t="s">
+      <c r="E82" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F82" s="15" t="s">
@@ -5545,7 +5548,7 @@
       <c r="D83" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="31" t="s">
         <v>108</v>
       </c>
       <c r="F83" s="15" t="s">
@@ -5565,7 +5568,7 @@
       <c r="D84" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F84" s="15" t="s">
@@ -5585,7 +5588,7 @@
       <c r="D85" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F85" s="15" t="s">
@@ -5605,7 +5608,7 @@
       <c r="D86" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F86" s="15" t="s">
@@ -5625,7 +5628,7 @@
       <c r="D87" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F87" s="15" t="s">
@@ -5645,7 +5648,7 @@
       <c r="D88" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F88" s="15" t="s">
@@ -5665,7 +5668,7 @@
       <c r="D89" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E89" s="28" t="s">
+      <c r="E89" s="31" t="s">
         <v>108</v>
       </c>
       <c r="F89" s="15" t="s">
@@ -5685,7 +5688,7 @@
       <c r="D90" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E90" s="28" t="s">
+      <c r="E90" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F90" s="15" t="s">
@@ -5705,7 +5708,7 @@
       <c r="D91" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E91" s="28" t="s">
+      <c r="E91" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F91" s="15" t="s">
@@ -5725,7 +5728,7 @@
       <c r="D92" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E92" s="28" t="s">
+      <c r="E92" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F92" s="15" t="s">
@@ -5745,7 +5748,7 @@
       <c r="D93" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E93" s="28" t="s">
+      <c r="E93" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F93" s="15" t="s">
@@ -5765,7 +5768,7 @@
       <c r="D94" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E94" s="28" t="s">
+      <c r="E94" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F94" s="15" t="s">
@@ -5785,7 +5788,7 @@
       <c r="D95" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E95" s="28" t="s">
+      <c r="E95" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F95" s="15" t="s">
@@ -5805,7 +5808,7 @@
       <c r="D96" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E96" s="28" t="s">
+      <c r="E96" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F96" s="15" t="s">
@@ -5825,7 +5828,7 @@
       <c r="D97" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E97" s="28" t="s">
+      <c r="E97" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F97" s="15" t="s">
@@ -5845,7 +5848,7 @@
       <c r="D98" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E98" s="28" t="s">
+      <c r="E98" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F98" s="15" t="s">
@@ -5865,7 +5868,7 @@
       <c r="D99" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E99" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F99" s="15" t="s">
@@ -5885,7 +5888,7 @@
       <c r="D100" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E100" s="28" t="s">
+      <c r="E100" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F100" s="15" t="s">
@@ -5905,7 +5908,7 @@
       <c r="D101" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E101" s="28" t="s">
+      <c r="E101" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F101" s="15" t="s">
@@ -5925,7 +5928,7 @@
       <c r="D102" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E102" s="28" t="s">
+      <c r="E102" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F102" s="15" t="s">
@@ -5945,7 +5948,7 @@
       <c r="D103" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E103" s="28" t="s">
+      <c r="E103" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F103" s="15" t="s">
@@ -5965,7 +5968,7 @@
       <c r="D104" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E104" s="28" t="s">
+      <c r="E104" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F104" s="15" t="s">
@@ -5985,7 +5988,7 @@
       <c r="D105" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E105" s="28" t="s">
+      <c r="E105" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F105" s="15" t="s">
@@ -6005,7 +6008,7 @@
       <c r="D106" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E106" s="28" t="s">
+      <c r="E106" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F106" s="15" t="s">
@@ -6022,10 +6025,10 @@
       <c r="C107" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="D107" s="29" t="s">
+      <c r="D107" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E107" s="28" t="s">
+      <c r="E107" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F107" s="15" t="s">
@@ -6042,10 +6045,10 @@
       <c r="C108" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E108" s="28" t="s">
+      <c r="E108" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F108" s="15" t="s">
@@ -6062,10 +6065,10 @@
       <c r="C109" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D109" s="29" t="s">
+      <c r="D109" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E109" s="28" t="s">
+      <c r="E109" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F109" s="15" t="s">
@@ -6082,10 +6085,10 @@
       <c r="C110" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E110" s="28" t="s">
+      <c r="E110" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F110" s="15" t="s">
@@ -6105,7 +6108,7 @@
       <c r="D111" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E111" s="28" t="s">
+      <c r="E111" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F111" s="15" t="s">
@@ -6125,7 +6128,7 @@
       <c r="D112" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E112" s="28" t="s">
+      <c r="E112" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F112" s="15" t="s">
@@ -6145,7 +6148,7 @@
       <c r="D113" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E113" s="28" t="s">
+      <c r="E113" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F113" s="15" t="s">
@@ -6165,7 +6168,7 @@
       <c r="D114" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E114" s="28" t="s">
+      <c r="E114" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F114" s="15" t="s">
@@ -6185,7 +6188,7 @@
       <c r="D115" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E115" s="28" t="s">
+      <c r="E115" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F115" s="15" t="s">
@@ -6205,7 +6208,7 @@
       <c r="D116" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E116" s="28" t="s">
+      <c r="E116" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F116" s="15" t="s">
@@ -6225,7 +6228,7 @@
       <c r="D117" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E117" s="28" t="s">
+      <c r="E117" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F117" s="15" t="s">
@@ -6245,7 +6248,7 @@
       <c r="D118" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E118" s="28" t="s">
+      <c r="E118" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F118" s="15" t="s">
@@ -6265,7 +6268,7 @@
       <c r="D119" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E119" s="28" t="s">
+      <c r="E119" s="31" t="s">
         <v>258</v>
       </c>
       <c r="F119" s="15" t="s">
@@ -6285,7 +6288,7 @@
       <c r="D120" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E120" s="28" t="s">
+      <c r="E120" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F120" s="15" t="s">
@@ -6305,7 +6308,7 @@
       <c r="D121" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="E121" s="28" t="s">
+      <c r="E121" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F121" s="15" t="s">
@@ -6325,7 +6328,7 @@
       <c r="D122" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="E122" s="28" t="s">
+      <c r="E122" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F122" s="15" t="s">
@@ -6345,7 +6348,7 @@
       <c r="D123" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E123" s="28" t="s">
+      <c r="E123" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F123" s="15" t="s">
@@ -6365,7 +6368,7 @@
       <c r="D124" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F124" s="15" t="s">
@@ -6385,7 +6388,7 @@
       <c r="D125" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F125" s="15" t="s">
@@ -6405,7 +6408,7 @@
       <c r="D126" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F126" s="15" t="s">
@@ -6425,7 +6428,7 @@
       <c r="D127" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E127" s="28" t="s">
+      <c r="E127" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F127" s="15" t="s">
@@ -6445,7 +6448,7 @@
       <c r="D128" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E128" s="28" t="s">
+      <c r="E128" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F128" s="15" t="s">
@@ -6465,7 +6468,7 @@
       <c r="D129" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E129" s="28" t="s">
+      <c r="E129" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F129" s="15" t="s">
@@ -6485,7 +6488,7 @@
       <c r="D130" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F130" s="15" t="s">
@@ -6505,7 +6508,7 @@
       <c r="D131" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E131" s="28" t="s">
+      <c r="E131" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F131" s="15" t="s">
@@ -6525,7 +6528,7 @@
       <c r="D132" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E132" s="28" t="s">
+      <c r="E132" s="31" t="s">
         <v>149</v>
       </c>
       <c r="F132" s="15" t="s">
@@ -6545,7 +6548,7 @@
       <c r="D133" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E133" s="28" t="s">
+      <c r="E133" s="31" t="s">
         <v>208</v>
       </c>
       <c r="F133" s="15" t="s">
@@ -6574,7 +6577,7 @@
   <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6591,30 +6594,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="2" spans="1:22" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -6708,7 +6711,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" ht="25.2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="9" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>120</v>
       </c>
@@ -6760,7 +6763,7 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
     </row>
-    <row r="5" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -6824,7 +6827,7 @@
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
     </row>
-    <row r="6" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
@@ -6888,7 +6891,7 @@
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
     </row>
-    <row r="7" spans="1:22" ht="89.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -6934,7 +6937,7 @@
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
     </row>
-    <row r="8" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
@@ -6998,7 +7001,7 @@
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
     </row>
-    <row r="9" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>123</v>
       </c>
@@ -7062,7 +7065,7 @@
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
     </row>
-    <row r="10" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>123</v>
       </c>
@@ -7126,7 +7129,7 @@
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
     </row>
-    <row r="11" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -7172,7 +7175,7 @@
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
     </row>
-    <row r="12" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -7236,7 +7239,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>123</v>
       </c>
@@ -7249,7 +7252,7 @@
       <c r="D13" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="31" t="s">
         <v>204</v>
       </c>
       <c r="F13" s="15" t="s">
@@ -7311,7 +7314,7 @@
         <v>179</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="28"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="15" t="s">
         <v>358</v>
       </c>
@@ -7361,7 +7364,7 @@
       <c r="D15" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="31" t="s">
         <v>192</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -7425,11 +7428,11 @@
       <c r="D16" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="31" t="s">
         <v>190</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>244</v>
@@ -7489,7 +7492,7 @@
       <c r="D17" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="31" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="15"/>
@@ -7537,7 +7540,7 @@
       <c r="D18" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="31" t="s">
         <v>186</v>
       </c>
       <c r="F18" s="15"/>
@@ -7585,7 +7588,7 @@
       <c r="D19" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="31" t="s">
         <v>182</v>
       </c>
       <c r="F19" s="15"/>
@@ -7633,7 +7636,7 @@
       <c r="D20" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="31" t="s">
         <v>188</v>
       </c>
       <c r="F20" s="15"/>
@@ -7668,7 +7671,7 @@
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
     </row>
-    <row r="21" spans="1:22" ht="64.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>120</v>
       </c>
@@ -7679,9 +7682,9 @@
         <v>141</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="28"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -7716,7 +7719,7 @@
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
     </row>
-    <row r="22" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>123</v>
       </c>
@@ -7729,11 +7732,11 @@
       <c r="D22" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="31" t="s">
         <v>145</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>247</v>
@@ -7780,7 +7783,7 @@
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
     </row>
-    <row r="23" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>123</v>
       </c>
@@ -7793,11 +7796,11 @@
       <c r="D23" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="31" t="s">
         <v>147</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>257</v>
@@ -7844,7 +7847,7 @@
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
     </row>
-    <row r="24" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>123</v>
       </c>
@@ -7857,11 +7860,11 @@
       <c r="D24" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="31" t="s">
         <v>143</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>298</v>
@@ -7908,7 +7911,7 @@
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
     </row>
-    <row r="25" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>120</v>
       </c>
@@ -7919,9 +7922,9 @@
         <v>157</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="28"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -7956,7 +7959,7 @@
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
     </row>
-    <row r="26" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>123</v>
       </c>
@@ -7969,11 +7972,11 @@
       <c r="D26" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="31" t="s">
         <v>161</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>312</v>
@@ -8020,7 +8023,7 @@
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
     </row>
-    <row r="27" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>123</v>
       </c>
@@ -8033,7 +8036,7 @@
       <c r="D27" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="31" t="s">
         <v>233</v>
       </c>
       <c r="F27" s="15"/>
@@ -8082,7 +8085,7 @@
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
     </row>
-    <row r="28" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>123</v>
       </c>
@@ -8095,11 +8098,11 @@
       <c r="D28" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="31" t="s">
         <v>159</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>244</v>
@@ -8146,7 +8149,7 @@
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
     </row>
-    <row r="29" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>123</v>
       </c>
@@ -8159,11 +8162,11 @@
       <c r="D29" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="31" t="s">
         <v>163</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>315</v>
@@ -8210,7 +8213,7 @@
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
     </row>
-    <row r="30" spans="1:22" ht="76.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>120</v>
       </c>
@@ -8221,9 +8224,9 @@
         <v>161</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="28"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -8258,7 +8261,7 @@
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
     </row>
-    <row r="31" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>149</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>277</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="28"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -8302,7 +8305,7 @@
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
     </row>
-    <row r="32" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>152</v>
       </c>
@@ -8312,14 +8315,14 @@
       <c r="C32" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="31" t="s">
         <v>279</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -8338,7 +8341,7 @@
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
     </row>
-    <row r="33" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>152</v>
       </c>
@@ -8351,11 +8354,11 @@
       <c r="D33" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="31" t="s">
         <v>281</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -8374,7 +8377,7 @@
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
     </row>
-    <row r="34" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>152</v>
       </c>
@@ -8387,11 +8390,11 @@
       <c r="D34" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="31" t="s">
         <v>283</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -8410,7 +8413,7 @@
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
     </row>
-    <row r="35" spans="1:22" ht="51.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>152</v>
       </c>
@@ -8423,11 +8426,11 @@
       <c r="D35" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="31" t="s">
         <v>285</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -8446,7 +8449,7 @@
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
     </row>
-    <row r="36" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>152</v>
       </c>
@@ -8459,11 +8462,11 @@
       <c r="D36" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="31" t="s">
         <v>287</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -8482,18 +8485,18 @@
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
     </row>
-    <row r="37" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="32" t="s">
         <v>288</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>289</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="E37" s="28"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -8526,24 +8529,24 @@
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
     </row>
-    <row r="38" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="32" t="s">
         <v>288</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="31" t="s">
         <v>291</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -8562,24 +8565,24 @@
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
     </row>
-    <row r="39" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="32" t="s">
         <v>288</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="31" t="s">
         <v>293</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -8598,24 +8601,24 @@
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
     </row>
-    <row r="40" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="32" t="s">
         <v>288</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="31" t="s">
         <v>295</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -8634,11 +8637,11 @@
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
     </row>
-    <row r="41" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="32" t="s">
         <v>288</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -8647,7 +8650,7 @@
       <c r="D41" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="31" t="s">
         <v>297</v>
       </c>
       <c r="F41" s="15"/>
@@ -8668,7 +8671,7 @@
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
     </row>
-    <row r="42" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>149</v>
       </c>
@@ -8679,9 +8682,9 @@
         <v>299</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="28"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -8714,7 +8717,7 @@
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
     </row>
-    <row r="43" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>152</v>
       </c>
@@ -8727,7 +8730,7 @@
       <c r="D43" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="31" t="s">
         <v>301</v>
       </c>
       <c r="F43" s="15"/>
@@ -8748,7 +8751,7 @@
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
     </row>
-    <row r="44" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>152</v>
       </c>
@@ -8761,7 +8764,7 @@
       <c r="D44" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="31" t="s">
         <v>303</v>
       </c>
       <c r="F44" s="15"/>
@@ -8782,7 +8785,7 @@
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
     </row>
-    <row r="45" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>152</v>
       </c>
@@ -8795,7 +8798,7 @@
       <c r="D45" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="31" t="s">
         <v>305</v>
       </c>
       <c r="F45" s="15"/>
@@ -8816,7 +8819,7 @@
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
     </row>
-    <row r="46" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>149</v>
       </c>
@@ -8827,9 +8830,9 @@
         <v>150</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="28"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -8862,7 +8865,7 @@
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
     </row>
-    <row r="47" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>152</v>
       </c>
@@ -8875,11 +8878,11 @@
       <c r="D47" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="31" t="s">
         <v>153</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -8898,7 +8901,7 @@
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
     </row>
-    <row r="48" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>152</v>
       </c>
@@ -8911,11 +8914,11 @@
       <c r="D48" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="31" t="s">
         <v>155</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -8934,7 +8937,7 @@
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
     </row>
-    <row r="49" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>149</v>
       </c>
@@ -8945,9 +8948,9 @@
         <v>165</v>
       </c>
       <c r="D49" s="15"/>
-      <c r="E49" s="28"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -8980,7 +8983,7 @@
       <c r="U49" s="15"/>
       <c r="V49" s="15"/>
     </row>
-    <row r="50" spans="1:22" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>152</v>
       </c>
@@ -8993,7 +8996,7 @@
       <c r="D50" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="31" t="s">
         <v>167</v>
       </c>
       <c r="F50" s="15"/>
@@ -9014,7 +9017,7 @@
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
     </row>
-    <row r="51" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>152</v>
       </c>
@@ -9027,7 +9030,7 @@
       <c r="D51" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="31" t="s">
         <v>169</v>
       </c>
       <c r="F51" s="15"/>
@@ -9048,7 +9051,7 @@
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
     </row>
-    <row r="52" spans="1:22" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>152</v>
       </c>
@@ -9061,7 +9064,7 @@
       <c r="D52" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="31" t="s">
         <v>171</v>
       </c>
       <c r="F52" s="15"/>
@@ -9082,7 +9085,7 @@
       <c r="U52" s="15"/>
       <c r="V52" s="15"/>
     </row>
-    <row r="53" spans="1:22" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>152</v>
       </c>
@@ -9095,7 +9098,7 @@
       <c r="D53" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="31" t="s">
         <v>173</v>
       </c>
       <c r="F53" s="15"/>
@@ -9116,7 +9119,7 @@
       <c r="U53" s="15"/>
       <c r="V53" s="15"/>
     </row>
-    <row r="54" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>149</v>
       </c>
@@ -9127,7 +9130,7 @@
         <v>308</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="28"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -9160,7 +9163,7 @@
       <c r="U54" s="15"/>
       <c r="V54" s="15"/>
     </row>
-    <row r="55" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>152</v>
       </c>
@@ -9173,11 +9176,11 @@
       <c r="D55" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="31" t="s">
         <v>322</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -9196,7 +9199,7 @@
       <c r="U55" s="15"/>
       <c r="V55" s="15"/>
     </row>
-    <row r="56" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>152</v>
       </c>
@@ -9209,11 +9212,11 @@
       <c r="D56" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="31" t="s">
         <v>324</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -9232,7 +9235,7 @@
       <c r="U56" s="15"/>
       <c r="V56" s="15"/>
     </row>
-    <row r="57" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>152</v>
       </c>
@@ -9245,7 +9248,7 @@
       <c r="D57" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="31" t="s">
         <v>326</v>
       </c>
       <c r="F57" s="15"/>
@@ -9266,7 +9269,7 @@
       <c r="U57" s="15"/>
       <c r="V57" s="15"/>
     </row>
-    <row r="58" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>152</v>
       </c>
@@ -9279,7 +9282,7 @@
       <c r="D58" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="31" t="s">
         <v>328</v>
       </c>
       <c r="F58" s="15"/>
@@ -9300,7 +9303,7 @@
       <c r="U58" s="15"/>
       <c r="V58" s="15"/>
     </row>
-    <row r="59" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>245</v>
       </c>
@@ -9311,7 +9314,7 @@
         <v>246</v>
       </c>
       <c r="D59" s="15"/>
-      <c r="E59" s="28"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -9340,7 +9343,7 @@
       <c r="U59" s="15"/>
       <c r="V59" s="15"/>
     </row>
-    <row r="60" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>245</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>248</v>
       </c>
       <c r="D60" s="15"/>
-      <c r="E60" s="28"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -9380,7 +9383,7 @@
       <c r="U60" s="15"/>
       <c r="V60" s="15"/>
     </row>
-    <row r="61" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>245</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>250</v>
       </c>
       <c r="D61" s="15"/>
-      <c r="E61" s="28"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -9420,7 +9423,7 @@
       <c r="U61" s="15"/>
       <c r="V61" s="15"/>
     </row>
-    <row r="62" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>245</v>
       </c>
@@ -9431,7 +9434,7 @@
         <v>252</v>
       </c>
       <c r="D62" s="15"/>
-      <c r="E62" s="28"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -9460,7 +9463,7 @@
       <c r="U62" s="15"/>
       <c r="V62" s="15"/>
     </row>
-    <row r="63" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>245</v>
       </c>
@@ -9471,7 +9474,7 @@
         <v>254</v>
       </c>
       <c r="D63" s="15"/>
-      <c r="E63" s="28"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -9500,7 +9503,7 @@
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
     </row>
-    <row r="64" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>258</v>
       </c>
@@ -9511,7 +9514,7 @@
         <v>259</v>
       </c>
       <c r="D64" s="15"/>
-      <c r="E64" s="28"/>
+      <c r="E64" s="31"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -9540,7 +9543,7 @@
       <c r="U64" s="15"/>
       <c r="V64" s="15"/>
     </row>
-    <row r="65" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>123</v>
       </c>
@@ -9553,7 +9556,7 @@
       <c r="D65" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="31" t="s">
         <v>261</v>
       </c>
       <c r="F65" s="15"/>
@@ -9598,7 +9601,7 @@
       <c r="U65" s="15"/>
       <c r="V65" s="15"/>
     </row>
-    <row r="66" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>123</v>
       </c>
@@ -9611,7 +9614,7 @@
       <c r="D66" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="31" t="s">
         <v>263</v>
       </c>
       <c r="F66" s="15"/>
@@ -9656,7 +9659,7 @@
       <c r="U66" s="15"/>
       <c r="V66" s="15"/>
     </row>
-    <row r="67" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>123</v>
       </c>
@@ -9669,7 +9672,7 @@
       <c r="D67" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="31" t="s">
         <v>265</v>
       </c>
       <c r="F67" s="15"/>
@@ -9714,7 +9717,7 @@
       <c r="U67" s="15"/>
       <c r="V67" s="15"/>
     </row>
-    <row r="68" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>258</v>
       </c>
@@ -9725,7 +9728,7 @@
         <v>267</v>
       </c>
       <c r="D68" s="15"/>
-      <c r="E68" s="28"/>
+      <c r="E68" s="31"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -9754,7 +9757,7 @@
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
     </row>
-    <row r="69" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>123</v>
       </c>
@@ -9767,7 +9770,7 @@
       <c r="D69" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="31" t="s">
         <v>267</v>
       </c>
       <c r="F69" s="15"/>
@@ -9812,7 +9815,7 @@
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
     </row>
-    <row r="70" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>123</v>
       </c>
@@ -9822,10 +9825,10 @@
       <c r="C70" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="31" t="s">
         <v>270</v>
       </c>
       <c r="F70" s="15"/>
@@ -9870,7 +9873,7 @@
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
     </row>
-    <row r="71" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>258</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>272</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="E71" s="28"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -9910,7 +9913,7 @@
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
     </row>
-    <row r="72" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>123</v>
       </c>
@@ -9923,11 +9926,11 @@
       <c r="D72" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="31" t="s">
         <v>274</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="32" t="s">
         <v>288</v>
       </c>
       <c r="H72" s="15" t="s">
@@ -9972,7 +9975,7 @@
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
     </row>
-    <row r="73" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>123</v>
       </c>
@@ -9985,15 +9988,15 @@
       <c r="D73" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="31" t="s">
         <v>272</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I73" s="15" t="s">
         <v>271</v>
@@ -10034,7 +10037,7 @@
       <c r="U73" s="15"/>
       <c r="V73" s="15"/>
     </row>
-    <row r="74" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>149</v>
       </c>
@@ -10045,7 +10048,7 @@
         <v>277</v>
       </c>
       <c r="D74" s="15"/>
-      <c r="E74" s="28"/>
+      <c r="E74" s="31"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -10074,18 +10077,18 @@
       <c r="U74" s="15"/>
       <c r="V74" s="15"/>
     </row>
-    <row r="75" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="32" t="s">
         <v>288</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>289</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="28"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -10114,7 +10117,7 @@
       <c r="U75" s="15"/>
       <c r="V75" s="15"/>
     </row>
-    <row r="76" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>149</v>
       </c>
@@ -10125,9 +10128,9 @@
         <v>299</v>
       </c>
       <c r="D76" s="15"/>
-      <c r="E76" s="28"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -10156,7 +10159,7 @@
       <c r="U76" s="15"/>
       <c r="V76" s="15"/>
     </row>
-    <row r="77" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>258</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>135</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="E77" s="28"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -10196,7 +10199,7 @@
       <c r="U77" s="15"/>
       <c r="V77" s="15"/>
     </row>
-    <row r="78" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>123</v>
       </c>
@@ -10209,7 +10212,7 @@
       <c r="D78" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="31" t="s">
         <v>308</v>
       </c>
       <c r="F78" s="15"/>
@@ -10254,7 +10257,7 @@
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
     </row>
-    <row r="79" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>258</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>202</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="28"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -10294,7 +10297,7 @@
       <c r="U79" s="15"/>
       <c r="V79" s="15"/>
     </row>
-    <row r="80" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>123</v>
       </c>
@@ -10307,7 +10310,7 @@
       <c r="D80" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="31" t="s">
         <v>277</v>
       </c>
       <c r="F80" s="15"/>
@@ -10356,7 +10359,7 @@
       <c r="U80" s="15"/>
       <c r="V80" s="15"/>
     </row>
-    <row r="81" spans="1:22" ht="39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>123</v>
       </c>
@@ -10369,15 +10372,15 @@
       <c r="D81" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="31" t="s">
         <v>202</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>309</v>
@@ -10418,7 +10421,7 @@
       <c r="U81" s="15"/>
       <c r="V81" s="15"/>
     </row>
-    <row r="82" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>149</v>
       </c>
@@ -10429,9 +10432,9 @@
         <v>150</v>
       </c>
       <c r="D82" s="15"/>
-      <c r="E82" s="28"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -10460,7 +10463,7 @@
       <c r="U82" s="15"/>
       <c r="V82" s="15"/>
     </row>
-    <row r="83" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>149</v>
       </c>
@@ -10471,9 +10474,9 @@
         <v>165</v>
       </c>
       <c r="D83" s="15"/>
-      <c r="E83" s="28"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -10502,7 +10505,7 @@
       <c r="U83" s="15"/>
       <c r="V83" s="15"/>
     </row>
-    <row r="84" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>149</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>308</v>
       </c>
       <c r="D84" s="15"/>
-      <c r="E84" s="28"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -10542,7 +10545,7 @@
       <c r="U84" s="15"/>
       <c r="V84" s="15"/>
     </row>
-    <row r="85" spans="1:22" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>258</v>
       </c>
@@ -10553,7 +10556,7 @@
         <v>121</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="28"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -10616,13 +10619,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
@@ -10724,58 +10727,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
+      <c r="A1" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
     </row>
     <row r="2" spans="1:24" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
     </row>
     <row r="3" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -10856,7 +10859,7 @@
         <v>237</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>212</v>
@@ -10865,31 +10868,31 @@
         <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>209</v>
@@ -10898,31 +10901,31 @@
         <v>133</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>342</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
@@ -10930,7 +10933,7 @@
         <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>212</v>
@@ -10939,31 +10942,31 @@
         <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>230</v>
@@ -10972,31 +10975,31 @@
         <v>157</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>342</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U5" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="46.8" x14ac:dyDescent="0.3">
@@ -11004,7 +11007,7 @@
         <v>239</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>226</v>
@@ -11013,31 +11016,31 @@
         <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>342</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>230</v>
@@ -11046,31 +11049,31 @@
         <v>157</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>342</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -11116,15 +11119,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="A1" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
@@ -11172,13 +11175,13 @@
         <v>121</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -11196,13 +11199,13 @@
         <v>133</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11219,13 +11222,13 @@
         <v>141</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11242,13 +11245,13 @@
         <v>150</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11265,13 +11268,13 @@
         <v>157</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11288,13 +11291,13 @@
         <v>165</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11311,13 +11314,13 @@
         <v>179</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11334,13 +11337,13 @@
         <v>121</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
@@ -11357,13 +11360,13 @@
         <v>200</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -11402,22 +11405,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="A1" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
